--- a/AzureAITestProject/AzureAITestProject/Resources/Translations.xlsx
+++ b/AzureAITestProject/AzureAITestProject/Resources/Translations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -26,40 +26,43 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Apple_Test_Resource</t>
+    <t>Pumpkin_Test_String</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>No Translation</t>
+  </si>
+  <si>
+    <t>Apple_Test_String</t>
   </si>
   <si>
     <t>Apple</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Banana_Test_Resource</t>
-  </si>
-  <si>
-    <t>Banana</t>
-  </si>
-  <si>
-    <t>Kiwi_Test_Resource</t>
-  </si>
-  <si>
-    <t>Kiwi</t>
-  </si>
-  <si>
-    <t>No Translation</t>
-  </si>
-  <si>
-    <t>Orange_Test_Resource</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>PawPaw_Test_Resource</t>
-  </si>
-  <si>
-    <t>Paw Paw</t>
+    <t>Pomme</t>
+  </si>
+  <si>
+    <t>Need Review</t>
+  </si>
+  <si>
+    <t>Pear_Test_String</t>
+  </si>
+  <si>
+    <t>Pear</t>
+  </si>
+  <si>
+    <t>Poire</t>
+  </si>
+  <si>
+    <t>Peach_Test_String</t>
+  </si>
+  <si>
+    <t>Peach</t>
+  </si>
+  <si>
+    <t>Pêche</t>
   </si>
 </sst>
 </file>
@@ -117,13 +120,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.0242099761963" customWidth="1"/>
+    <col min="1" max="1" width="19.3693542480469" customWidth="1"/>
     <col min="2" max="2" width="15.2852773666382" customWidth="1"/>
     <col min="3" max="3" width="14.9476652145386" customWidth="1"/>
     <col min="4" max="4" width="13.5501585006714" customWidth="1"/>
@@ -165,52 +168,38 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
